--- a/public/fileFormat/[DATA-XLS]flight-Info.xlsx
+++ b/public/fileFormat/[DATA-XLS]flight-Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9480"/>
+    <workbookView windowWidth="19665" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Flights Information List" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
-  <si>
-    <t>FLIGHT_INFO_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>FLIGHT_NUMBER</t>
   </si>
@@ -78,8 +75,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -100,6 +97,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,7 +107,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,12 +130,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -146,38 +167,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -210,7 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,181 +249,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +437,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,17 +467,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -499,21 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -537,20 +519,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,94 +557,94 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,34 +653,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,26 +1013,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="15.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="20.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.1142857142857" customWidth="1"/>
+    <col min="6" max="6" width="15.7809523809524" customWidth="1"/>
+    <col min="7" max="7" width="20.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,182 +1056,161 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>44138</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1">
+        <v>44140</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>44140</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.0833333333333333</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44141</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44139</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44142</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
-        <v>44141</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.125</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44142</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44142</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
         <v>44140</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C7" s="2">
         <v>0.125</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44142</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
-        <v>44142</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H7" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44140</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44142</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>9999</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44140</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44142</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>9999</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44140</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44142</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
